--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_462__Reeval_Sobol_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_462__Reeval_Sobol_Modell_1.1.xlsx
@@ -6118,16 +6118,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>-1.132473707199097</c:v>
+                  <c:v>-1.132471442222595</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>52.44475555419922</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.1135838255286217</c:v>
+                  <c:v>-0.113581545650959</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1305476576089859</c:v>
+                  <c:v>0.1305453777313232</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>40.15332412719727</c:v>
@@ -6142,19 +6142,19 @@
                   <c:v>45.85088729858398</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.45002365112305</c:v>
+                  <c:v>49.45002746582031</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.98131561279297</c:v>
+                  <c:v>34.98131942749023</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.899322271347046</c:v>
+                  <c:v>2.899320125579834</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.1948492825031281</c:v>
+                  <c:v>-0.1948515623807907</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.636667728424072</c:v>
+                  <c:v>-2.63666558265686</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>53.2884635925293</c:v>
@@ -6166,10 +6166,10 @@
                   <c:v>51.57285308837891</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>53.19161605834961</c:v>
+                  <c:v>53.19162368774414</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.8155198097229</c:v>
+                  <c:v>4.815521717071533</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>50.72734069824219</c:v>
@@ -6178,7 +6178,7 @@
                   <c:v>52.25047302246094</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.421579837799072</c:v>
+                  <c:v>6.421582221984863</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>50.49314117431641</c:v>
@@ -6205,7 +6205,7 @@
                   <c:v>52.3958854675293</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>40.87404632568359</c:v>
+                  <c:v>40.87404251098633</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>54.23779296875</c:v>
@@ -6220,13 +6220,13 @@
                   <c:v>-1.07676112651825</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.616756796836853</c:v>
+                  <c:v>0.6167545318603516</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.025935769081116</c:v>
+                  <c:v>1.025933504104614</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.2184304296970367</c:v>
+                  <c:v>-0.2184327095746994</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-1.513510346412659</c:v>
@@ -6241,7 +6241,7 @@
                   <c:v>0.2833475172519684</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.8126387000083923</c:v>
+                  <c:v>0.8126364350318909</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>-1.745663166046143</c:v>
@@ -6250,7 +6250,7 @@
                   <c:v>53.97737503051758</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>53.66724014282227</c:v>
+                  <c:v>53.66724395751953</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-0.392962783575058</c:v>
@@ -6310,16 +6310,16 @@
                   <c:v>50.7325553894043</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>50.23336791992188</c:v>
+                  <c:v>50.23336410522461</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>1.666700005531311</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-1.230301856994629</c:v>
+                  <c:v>-1.230299592018127</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.7936301827430725</c:v>
+                  <c:v>0.793627917766571</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>2.324469089508057</c:v>
@@ -6328,7 +6328,7 @@
                   <c:v>-2.287468671798706</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>27.91194534301758</c:v>
+                  <c:v>27.91194915771484</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>0.6620499491691589</c:v>
@@ -6343,13 +6343,13 @@
                   <c:v>0.7570332288742065</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.8666052222251892</c:v>
+                  <c:v>0.8666074872016907</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>37.96026229858398</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.516252040863037</c:v>
+                  <c:v>4.516254425048828</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>46.62205505371094</c:v>
@@ -6361,13 +6361,13 @@
                   <c:v>12.21455764770508</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>29.29365730285645</c:v>
+                  <c:v>29.29365921020508</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.5581538677215576</c:v>
+                  <c:v>0.5581561326980591</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>47.02983474731445</c:v>
+                  <c:v>47.02983093261719</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>54.56313323974609</c:v>
@@ -6376,10 +6376,10 @@
                   <c:v>54.07984161376953</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.909592151641846</c:v>
+                  <c:v>6.909589767456055</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.1765018105506897</c:v>
+                  <c:v>0.176499530673027</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>51.92995071411133</c:v>
@@ -6388,7 +6388,7 @@
                   <c:v>0.08713738620281219</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.3854017853736877</c:v>
+                  <c:v>0.3853994905948639</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>52.33865356445312</c:v>
@@ -6400,22 +6400,22 @@
                   <c:v>39.30305099487305</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.2557613551616669</c:v>
+                  <c:v>0.255759060382843</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>-0.9365918636322021</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.08064079284668</c:v>
+                  <c:v>2.080636262893677</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>53.65200805664062</c:v>
+                  <c:v>53.65200042724609</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>52.58745956420898</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>41.07789993286133</c:v>
+                  <c:v>41.07789611816406</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>49.83705902099609</c:v>
@@ -6424,7 +6424,7 @@
                   <c:v>3.449488878250122</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4.196353435516357</c:v>
+                  <c:v>4.196351051330566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-1.132473707199097</v>
+        <v>-1.132471442222595</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-0.1135838255286217</v>
+        <v>-0.113581545650959</v>
       </c>
       <c r="G4">
         <v>77</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1305476576089859</v>
+        <v>0.1305453777313232</v>
       </c>
       <c r="G5">
         <v>77</v>
@@ -7351,7 +7351,7 @@
         <v>49.6799</v>
       </c>
       <c r="F10">
-        <v>49.45002365112305</v>
+        <v>49.45002746582031</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.98131561279297</v>
+        <v>34.98131942749023</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.899322271347046</v>
+        <v>2.899320125579834</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-0.1948492825031281</v>
+        <v>-0.1948515623807907</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-2.636667728424072</v>
+        <v>-2.63666558265686</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7511,7 +7511,7 @@
         <v>51.4673</v>
       </c>
       <c r="F18">
-        <v>53.19161605834961</v>
+        <v>53.19162368774414</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4.8155198097229</v>
+        <v>4.815521717071533</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>34.2646</v>
       </c>
       <c r="F22">
-        <v>6.421579837799072</v>
+        <v>6.421582221984863</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>51.9912</v>
       </c>
       <c r="F31">
-        <v>40.87404632568359</v>
+        <v>40.87404251098633</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.616756796836853</v>
+        <v>0.6167545318603516</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.025935769081116</v>
+        <v>1.025933504104614</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-0.2184304296970367</v>
+        <v>-0.2184327095746994</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.8126387000083923</v>
+        <v>0.8126364350318909</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>49.825</v>
       </c>
       <c r="F46">
-        <v>53.66724014282227</v>
+        <v>53.66724395751953</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>45.7573</v>
       </c>
       <c r="F66">
-        <v>50.23336791992188</v>
+        <v>50.23336410522461</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>-1.230301856994629</v>
+        <v>-1.230299592018127</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0.7936301827430725</v>
+        <v>0.793627917766571</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>27.91194534301758</v>
+        <v>27.91194915771484</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.8666052222251892</v>
+        <v>0.8666074872016907</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>4.516252040863037</v>
+        <v>4.516254425048828</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>29.29365730285645</v>
+        <v>29.29365921020508</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.5581538677215576</v>
+        <v>0.5581561326980591</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>47.02983474731445</v>
+        <v>47.02983093261719</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>47.2348</v>
       </c>
       <c r="F88">
-        <v>6.909592151641846</v>
+        <v>6.909589767456055</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0.1765018105506897</v>
+        <v>0.176499530673027</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0.3854017853736877</v>
+        <v>0.3853994905948639</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0.2557613551616669</v>
+        <v>0.255759060382843</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>2.08064079284668</v>
+        <v>2.080636262893677</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9131,7 +9131,7 @@
         <v>41.217</v>
       </c>
       <c r="F99">
-        <v>53.65200805664062</v>
+        <v>53.65200042724609</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9171,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>41.07789993286133</v>
+        <v>41.07789611816406</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9231,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>4.196353435516357</v>
+        <v>4.196351051330566</v>
       </c>
     </row>
     <row r="105" spans="1:6">
